--- a/patient_data.xlsx
+++ b/patient_data.xlsx
@@ -543,7 +543,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2378385</t>
+          <t>110508</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -593,7 +593,11 @@
         </is>
       </c>
       <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>01/04/2025</t>
+        </is>
+      </c>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -617,7 +621,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2380868</t>
+          <t>33997</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -663,7 +667,11 @@
         </is>
       </c>
       <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>02/04/2025</t>
+        </is>
+      </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -687,7 +695,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2376804</t>
+          <t>83868</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -737,7 +745,11 @@
         </is>
       </c>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>01/04/2025</t>
+        </is>
+      </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -761,7 +773,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2309997</t>
+          <t>92999</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -811,7 +823,11 @@
         </is>
       </c>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>31/03/2025</t>
+        </is>
+      </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -835,7 +851,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2381041</t>
+          <t>107585</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -881,7 +897,11 @@
         </is>
       </c>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>01/04/2025</t>
+        </is>
+      </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -905,7 +925,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2378338</t>
+          <t>133674</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -955,7 +975,11 @@
         </is>
       </c>
       <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>01/04/2025</t>
+        </is>
+      </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -979,7 +1003,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2375071</t>
+          <t>52680</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1029,7 +1053,11 @@
         </is>
       </c>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>01/04/2025</t>
+        </is>
+      </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1053,7 +1081,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2375116</t>
+          <t>58017</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1103,7 +1131,11 @@
         </is>
       </c>
       <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>01/04/2025</t>
+        </is>
+      </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1127,7 +1159,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2381164</t>
+          <t>132216</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1173,7 +1205,11 @@
         </is>
       </c>
       <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>03/04/2025</t>
+        </is>
+      </c>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>

--- a/patient_data.xlsx
+++ b/patient_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,21 +519,6 @@
           <t>providerlastname</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>datasource</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>icd_code_9</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>icd_code_10</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -586,7 +571,11 @@
           <t>01/04/2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
       <c r="L2" t="inlineStr">
         <is>
           <t>66194</t>
@@ -609,9 +598,6 @@
           <t>Arshad</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -660,7 +646,11 @@
           <t>01/04/2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Prescription</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr">
         <is>
           <t>0</t>
@@ -683,9 +673,6 @@
           <t>Arcentales</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -738,7 +725,11 @@
           <t>01/04/2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Controlling High Blood Pressure,Care for Older Adults,Depression Screening and Follow-Up for Adolescents and Adults,Hospitalization for Potentially Preventable Complications,Social Need Screening and Intervention (Electronic)</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr">
         <is>
           <t>94380</t>
@@ -761,9 +752,6 @@
           <t>Sanchez</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -839,9 +827,6 @@
           <t>leonardo</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -913,9 +898,6 @@
           <t>Alla</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -968,7 +950,11 @@
           <t>01/04/2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Pain in leg</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr">
         <is>
           <t>9102</t>
@@ -991,9 +977,6 @@
           <t>Haque</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1046,7 +1029,11 @@
           <t>01/04/2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Lab results Follow Up</t>
+        </is>
+      </c>
       <c r="L8" t="inlineStr">
         <is>
           <t>44446</t>
@@ -1069,9 +1056,6 @@
           <t>Cabrera</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1124,7 +1108,11 @@
           <t>01/04/2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Check Up</t>
+        </is>
+      </c>
       <c r="L9" t="inlineStr">
         <is>
           <t>44446</t>
@@ -1147,9 +1135,6 @@
           <t>Cabrera</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1221,9 +1206,6 @@
           <t>Alla</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/patient_data.xlsx
+++ b/patient_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,6 +519,11 @@
           <t>providerlastname</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>icd_code_10</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -581,13 +586,19 @@
           <t>66194</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
       <c r="N2" t="inlineStr">
         <is>
           <t>01/04/2025</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr"/>
+      <c r="O2" t="n">
+        <v>44972</v>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
           <t>Haroon</t>
@@ -596,6 +607,11 @@
       <c r="Q2" t="inlineStr">
         <is>
           <t>Arshad</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Z00.129, Z71.3, Z71.9, Z71.82, Z68.54, Z13.9, N/A</t>
         </is>
       </c>
     </row>
@@ -656,13 +672,19 @@
           <t>0</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr">
         <is>
           <t>02/04/2025</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr"/>
+      <c r="O3" t="n">
+        <v>44972</v>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>Jonathan</t>
@@ -671,6 +693,11 @@
       <c r="Q3" t="inlineStr">
         <is>
           <t>Arcentales</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -735,13 +762,19 @@
           <t>94380</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr">
         <is>
           <t>01/04/2025</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr"/>
+      <c r="O4" t="n">
+        <v>44972</v>
+      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>Yanira</t>
@@ -750,6 +783,11 @@
       <c r="Q4" t="inlineStr">
         <is>
           <t>Sanchez</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>R14.1, I10, E78.2, R73.03, Z68.28, N/A</t>
         </is>
       </c>
     </row>
@@ -810,13 +848,19 @@
           <t>68840</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr">
         <is>
           <t>31/03/2025</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr"/>
+      <c r="O5" t="n">
+        <v>44972</v>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>marisa</t>
@@ -825,6 +869,11 @@
       <c r="Q5" t="inlineStr">
         <is>
           <t>leonardo</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -881,13 +930,19 @@
           <t>0</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr">
         <is>
           <t>01/04/2025</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr"/>
+      <c r="O6" t="n">
+        <v>44972</v>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Vijaykumar</t>
@@ -896,6 +951,11 @@
       <c r="Q6" t="inlineStr">
         <is>
           <t>Alla</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>J45.20, K30, N/A</t>
         </is>
       </c>
     </row>
@@ -960,13 +1020,19 @@
           <t>9102</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
       <c r="N7" t="inlineStr">
         <is>
           <t>01/04/2025</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr"/>
+      <c r="O7" t="n">
+        <v>44972</v>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Muhammad M</t>
@@ -975,6 +1041,11 @@
       <c r="Q7" t="inlineStr">
         <is>
           <t>Haque</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>R10.10, I12.9, E78.5, Z86.711, I10, G47.00, N18.30, F32.9, Z96.641, Z68.22, Z13.9, N/A</t>
         </is>
       </c>
     </row>
@@ -1039,13 +1110,19 @@
           <t>44446</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
       <c r="N8" t="inlineStr">
         <is>
           <t>01/04/2025</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr"/>
+      <c r="O8" t="n">
+        <v>44972</v>
+      </c>
       <c r="P8" t="inlineStr">
         <is>
           <t>Michelle</t>
@@ -1054,6 +1131,11 @@
       <c r="Q8" t="inlineStr">
         <is>
           <t>Cabrera</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Z71.2, Z68.25, I10, E78.5, N/A</t>
         </is>
       </c>
     </row>
@@ -1118,13 +1200,19 @@
           <t>44446</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
       <c r="N9" t="inlineStr">
         <is>
           <t>01/04/2025</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr"/>
+      <c r="O9" t="n">
+        <v>44972</v>
+      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Michelle</t>
@@ -1133,6 +1221,11 @@
       <c r="Q9" t="inlineStr">
         <is>
           <t>Cabrera</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Z00.00, Z71.3, I10, Z11.1, Z02.1, J45.20, I83.813, M19.90, K21.9, G43.109, E78.5, G47.00, F32.0, M54.31, Z71.82, Z11.3, Z68.30, M25.521, N/A</t>
         </is>
       </c>
     </row>
@@ -1189,13 +1282,19 @@
           <t>0</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
       <c r="N10" t="inlineStr">
         <is>
           <t>03/04/2025</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr"/>
+      <c r="O10" t="n">
+        <v>44972</v>
+      </c>
       <c r="P10" t="inlineStr">
         <is>
           <t>Vijaykumar</t>
@@ -1204,6 +1303,11 @@
       <c r="Q10" t="inlineStr">
         <is>
           <t>Alla</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
